--- a/hardware/Pick-and-Place.xlsx
+++ b/hardware/Pick-and-Place.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-07-30" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-08-05" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
   <si>
     <t>Designator</t>
   </si>
@@ -55,6 +55,201 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>LCSC Part Name</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>-1.594mm</t>
+  </si>
+  <si>
+    <t>2.367mm</t>
+  </si>
+  <si>
+    <t>1.822mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>100nF ±10% 16V</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>-5.7mm</t>
+  </si>
+  <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>-6.245mm</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>-3.7mm</t>
+  </si>
+  <si>
+    <t>-2.4mm</t>
+  </si>
+  <si>
+    <t>-3.155mm</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
+    <t>1.934mm</t>
+  </si>
+  <si>
+    <t>7.996mm</t>
+  </si>
+  <si>
+    <t>7.451mm</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>1uF ±10% 25V</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>-0.6mm</t>
+  </si>
+  <si>
+    <t>5.3mm</t>
+  </si>
+  <si>
+    <t>4.755mm</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED0603-RD</t>
+  </si>
+  <si>
+    <t>-4.1mm</t>
+  </si>
+  <si>
+    <t>9mm</t>
+  </si>
+  <si>
+    <t>-4.899mm</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>0603 红灯 高亮</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>-8.1mm</t>
+  </si>
+  <si>
+    <t>-3.8mm</t>
+  </si>
+  <si>
+    <t>-8.899mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0402WGF1001TCE</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>-4.5mm</t>
+  </si>
+  <si>
+    <t>10.6mm</t>
+  </si>
+  <si>
+    <t>-4.933mm</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>1kΩ ±1% 62.5mW 厚膜电阻</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ICM-20948</t>
+  </si>
+  <si>
+    <t>QFN-24_L3.0-W3.0-P0.40-BL-EP</t>
+  </si>
+  <si>
+    <t>-4.075mm</t>
+  </si>
+  <si>
+    <t>2.475mm</t>
+  </si>
+  <si>
+    <t>-5.503mm</t>
+  </si>
+  <si>
+    <t>3.475mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>TLV73318PDBVR</t>
+  </si>
+  <si>
+    <t>SOT-23-5_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>-0.5mm</t>
+  </si>
+  <si>
+    <t>8.025mm</t>
+  </si>
+  <si>
+    <t>-1.6mm</t>
+  </si>
+  <si>
+    <t>8.975mm</t>
+  </si>
+  <si>
+    <t>具有使能功能的 300mA、低 IQ、低压降无电容稳压器</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
@@ -64,16 +259,13 @@
     <t>HDR-TH_6P-P2.54-H-M-W10.4</t>
   </si>
   <si>
-    <t>-5.9mm</t>
-  </si>
-  <si>
-    <t>0mm</t>
-  </si>
-  <si>
-    <t>6.35mm</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>-12.2mm</t>
+  </si>
+  <si>
+    <t>2.5mm</t>
+  </si>
+  <si>
+    <t>8.85mm</t>
   </si>
   <si>
     <t>No</t>
@@ -82,6 +274,9 @@
     <t>Connectors</t>
   </si>
   <si>
+    <t>1x6P 间距:2.54mm 方针 弯插</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
@@ -91,130 +286,37 @@
     <t>VSON8_L2.0-W2.3-P0.50-LS3.1-BL</t>
   </si>
   <si>
-    <t>-2.8mm</t>
-  </si>
-  <si>
-    <t>3.8mm</t>
-  </si>
-  <si>
-    <t>-3.562mm</t>
-  </si>
-  <si>
-    <t>2.25mm</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>-9.125mm</t>
+  </si>
+  <si>
+    <t>6.275mm</t>
+  </si>
+  <si>
+    <t>-9.887mm</t>
+  </si>
+  <si>
+    <t>4.725mm</t>
+  </si>
+  <si>
+    <t>24Mbps 2位双向电平转换器</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>-2.542mm</t>
-  </si>
-  <si>
-    <t>-4.092mm</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>0.55mm</t>
-  </si>
-  <si>
-    <t>-2.45mm</t>
-  </si>
-  <si>
-    <t>0.005mm</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ICM-20948</t>
-  </si>
-  <si>
-    <t>QFN-24_L3.0-W3.0-P0.40-BL-EP</t>
-  </si>
-  <si>
-    <t>0.823mm</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>2.65mm</t>
-  </si>
-  <si>
-    <t>-4.8mm</t>
-  </si>
-  <si>
-    <t>3.195mm</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>4.8mm</t>
-  </si>
-  <si>
-    <t>-0.545mm</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>4.75mm</t>
-  </si>
-  <si>
-    <t>2.85mm</t>
-  </si>
-  <si>
-    <t>2.305mm</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>TLV73318PDBVR</t>
-  </si>
-  <si>
-    <t>SOT-23-5_L2.9-W1.6-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>5.85mm</t>
-  </si>
-  <si>
-    <t>5.55mm</t>
-  </si>
-  <si>
-    <t>6.5mm</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>8.25mm</t>
-  </si>
-  <si>
-    <t>5.005mm</t>
+    <t>-0.075mm</t>
+  </si>
+  <si>
+    <t>-1.625mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>-5.6mm</t>
+  </si>
+  <si>
+    <t>-6.033mm</t>
   </si>
 </sst>
 </file>
@@ -591,16 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="14" width="20" customWidth="1"/>
+    <col min="1" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,60 +745,66 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>270</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -714,165 +822,177 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>180</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="J6">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>270</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -896,192 +1016,395 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <v>270</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12">
+        <v>270</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
+      <c r="O15" t="s">
         <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>180</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>90</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
